--- a/js quiniela ex.xlsx
+++ b/js quiniela ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastienguy/Desktop/MASCUINIELA HTML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579DC04-D127-5D4B-9EF5-6A7EFF4F1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919E4FA-B847-2B4A-ABE1-8409AFB1CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14260" xr2:uid="{324511B3-7E2C-4544-9FC2-7844EE3E8025}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Parleyero</t>
   </si>
@@ -59,10 +59,7 @@
     <t>Jesus</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Francisco</t>
+    <t>Tote</t>
   </si>
 </sst>
 </file>
@@ -414,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785CC5C1-BBB6-174E-A899-758628EDCE19}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,17 +485,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
